--- a/Departments/URB.xlsx
+++ b/Departments/URB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE9A0CB-87E9-4294-8462-DA3B0B746F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AFBBC1-87A9-4DD9-8EE3-24D8C9BB2938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70922416-11BD-435A-B2B2-C6B43348FD7D}"/>
+    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7360" xr2:uid="{70922416-11BD-435A-B2B2-C6B43348FD7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -325,6 +319,12 @@
   </si>
   <si>
     <t>URB 695 - Selected Topics in Urban Studies</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,985 +698,985 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
         <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
         <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/URB.xlsx
+++ b/Departments/URB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AFBBC1-87A9-4DD9-8EE3-24D8C9BB2938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAC9FC4-92AC-4776-B3BC-2D6DBFEC71AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7360" xr2:uid="{70922416-11BD-435A-B2B2-C6B43348FD7D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70922416-11BD-435A-B2B2-C6B43348FD7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,18 +87,12 @@
     <t>URB 413 - Indigenous City: Transforming Storyscapes</t>
   </si>
   <si>
-    <t>REQ: 30 units.  Students with credit for URB 695 under the title "Storyscapes: Decolonizing the City Through Arts" may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>URB463</t>
   </si>
   <si>
     <t>URB 463 - Diversity and Equity in Cities</t>
   </si>
   <si>
-    <t>REQ: 30 units.  Students with credit for POL 463 or URB 695 under the title "Diversity in Cities" may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>URB605</t>
   </si>
   <si>
@@ -168,18 +162,6 @@
     <t>URB 697 - Research Project</t>
   </si>
   <si>
-    <t>REQ-URB 696 with a grade of A- or higher. Students who receive a B+ in URB 696 may enroll for URB 697 with permission of their senior supervisor.</t>
-  </si>
-  <si>
-    <t>URB699</t>
-  </si>
-  <si>
-    <t>URB 699 - Research Project Completion</t>
-  </si>
-  <si>
-    <t>REQ-URB 697.</t>
-  </si>
-  <si>
     <t>URB701</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
     <t>URB 423 - Women in Cities: A Critical Intersectional Perspective</t>
   </si>
   <si>
-    <t>REQ: 30 units.  Students who completed GSWS 411 E100 or URB 695 (Fall 2020) under the title "Women in Cities" may not take this course for further credit.</t>
-  </si>
-  <si>
     <t>URB497</t>
   </si>
   <si>
@@ -249,12 +228,6 @@
     <t>URB 610 - Urban Design: Integrating Theory and Practice</t>
   </si>
   <si>
-    <t>URB615</t>
-  </si>
-  <si>
-    <t>URB 615 - Comparative Metropolitan Governance</t>
-  </si>
-  <si>
     <t>URB620</t>
   </si>
   <si>
@@ -325,6 +298,33 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>REQ-30 units.  Students with credit for URB 695 under the title "Storyscapes: Decolonizing the City Through Arts" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-30 units.  Students who completed GSWS 411 E100 or URB 695 (Fall 2020) under the title "Women in Cities" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>REQ-30 units.  Students with credit for POL 463 or URB 695 under the title "Diversity in Cities" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>URB467</t>
+  </si>
+  <si>
+    <t>URB 467 - Housing Studies</t>
+  </si>
+  <si>
+    <t>REQ-30 units. Students with credit for URB 667 or URB 695 under the title "Debates in Housing Theory" may not take this course for further credit.</t>
+  </si>
+  <si>
+    <t>URB667</t>
+  </si>
+  <si>
+    <t>URB 667 - Housing Studies</t>
+  </si>
+  <si>
+    <t>REQ-URB 696 with a grade of A- or higher. Students who receive a B+ in URB 696 may enroll for URB 697 with permission of the Graduate Program Committee.</t>
   </si>
 </sst>
 </file>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC31FC20-14A2-406E-9AC3-347F7083EF91}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,10 +698,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -750,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -763,14 +763,11 @@
       </c>
       <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -779,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -794,12 +791,12 @@
         <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -808,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -821,11 +818,14 @@
       </c>
       <c r="H5" t="s">
         <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -834,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -847,11 +847,14 @@
       </c>
       <c r="H6" t="s">
         <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -860,7 +863,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -873,11 +876,14 @@
       </c>
       <c r="H7" t="s">
         <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -886,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -899,11 +905,14 @@
       </c>
       <c r="H8" t="s">
         <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -912,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -925,11 +934,14 @@
       </c>
       <c r="H9" t="s">
         <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -938,7 +950,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -955,7 +967,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -964,7 +976,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -981,7 +993,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -990,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1007,7 +1019,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1016,7 +1028,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1033,7 +1045,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1042,10 +1054,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1055,14 +1067,11 @@
       </c>
       <c r="H14" t="s">
         <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1071,10 +1080,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1084,599 +1093,590 @@
       </c>
       <c r="H15" t="s">
         <v>13</v>
-      </c>
-      <c r="I15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E37" t="s">
         <v>41</v>
       </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
